--- a/data/trans_orig/P21D_6_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{871FFCAA-EB80-449D-9016-7C6D0B074837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6914AA89-A630-4FFF-9E89-3BEB2F7D8E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5367F06F-51B2-4389-9D46-287467E00621}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE87822F-68C8-4F98-A862-01664B0B7354}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -110,37 +110,37 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>4,19%</t>
+    <t>4,16%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,71%</t>
+    <t>4,07%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>2,6%</t>
+    <t>2,54%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>95,81%</t>
+    <t>95,84%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>96,29%</t>
+    <t>95,93%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>97,4%</t>
+    <t>97,46%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -155,16 +155,16 @@
     <t>0,52%</t>
   </si>
   <si>
-    <t>2,95%</t>
+    <t>3,29%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
   </si>
   <si>
     <t>99,14%</t>
@@ -173,7 +173,7 @@
     <t>98,67%</t>
   </si>
   <si>
-    <t>97,05%</t>
+    <t>96,71%</t>
   </si>
   <si>
     <t>99,48%</t>
@@ -182,10 +182,10 @@
     <t>99,26%</t>
   </si>
   <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -197,28 +197,28 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,53%</t>
+    <t>2,74%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>97,47%</t>
+    <t>97,26%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -227,16 +227,16 @@
     <t>99,24%</t>
   </si>
   <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -245,49 +245,49 @@
     <t>0,95%</t>
   </si>
   <si>
-    <t>3,19%</t>
+    <t>3,27%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>96,81%</t>
+    <t>96,73%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -296,7 +296,7 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,74%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>1,61%</t>
@@ -305,25 +305,28 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>2,92%</t>
+    <t>2,72%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,63%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,26%</t>
+    <t>98,31%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>97,08%</t>
+    <t>97,28%</t>
   </si>
   <si>
     <t>99,21%</t>
@@ -332,49 +335,46 @@
     <t>98,85%</t>
   </si>
   <si>
-    <t>99,37%</t>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -789,7 +789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A351FC5-6535-4CB7-813B-E5F776A0093E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FC1831-9D88-4738-B328-7756DFCE4481}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1724,7 +1724,7 @@
         <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,10 +1739,10 @@
         <v>291084</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -1754,13 +1754,13 @@
         <v>387034</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>1138</v>
@@ -1769,13 +1769,13 @@
         <v>678118</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1843,13 +1843,13 @@
         <v>8856</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -1858,13 +1858,13 @@
         <v>21465</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -1876,10 +1876,10 @@
         <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1894,13 +1894,13 @@
         <v>1507746</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H23" s="7">
         <v>2341</v>
@@ -1909,13 +1909,13 @@
         <v>1661821</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="M23" s="7">
         <v>3791</v>
@@ -1927,7 +1927,7 @@
         <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>112</v>

--- a/data/trans_orig/P21D_6_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6914AA89-A630-4FFF-9E89-3BEB2F7D8E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C460035-0959-4ACF-9B19-DE05AE1C8557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE87822F-68C8-4F98-A862-01664B0B7354}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4680710F-6542-4DEA-9512-1E576D465CA8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -789,7 +789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FC1831-9D88-4738-B328-7756DFCE4481}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AD4B84-A7D9-4F4F-9379-C3D5C245F847}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_6_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C460035-0959-4ACF-9B19-DE05AE1C8557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{653C4C79-A273-4FAC-BCE6-28C4971FC30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4680710F-6542-4DEA-9512-1E576D465CA8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E6F2092-C871-4DE5-9752-470834F55575}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -110,37 +110,37 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>4,16%</t>
+    <t>4,19%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>4,07%</t>
+    <t>3,71%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>2,54%</t>
+    <t>2,6%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>95,84%</t>
+    <t>95,81%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>95,93%</t>
+    <t>96,29%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>97,46%</t>
+    <t>97,4%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -155,16 +155,16 @@
     <t>0,52%</t>
   </si>
   <si>
-    <t>3,29%</t>
+    <t>2,95%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
   </si>
   <si>
     <t>99,14%</t>
@@ -173,7 +173,7 @@
     <t>98,67%</t>
   </si>
   <si>
-    <t>96,71%</t>
+    <t>97,05%</t>
   </si>
   <si>
     <t>99,48%</t>
@@ -182,10 +182,10 @@
     <t>99,26%</t>
   </si>
   <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -197,28 +197,28 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,74%</t>
+    <t>2,53%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>97,26%</t>
+    <t>97,47%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -227,16 +227,16 @@
     <t>99,24%</t>
   </si>
   <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -245,49 +245,49 @@
     <t>0,95%</t>
   </si>
   <si>
-    <t>3,27%</t>
+    <t>3,19%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>96,73%</t>
+    <t>96,81%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -296,7 +296,7 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,69%</t>
+    <t>1,74%</t>
   </si>
   <si>
     <t>1,61%</t>
@@ -305,28 +305,25 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>2,72%</t>
+    <t>2,92%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
+    <t>0,63%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,31%</t>
+    <t>98,26%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>97,28%</t>
+    <t>97,08%</t>
   </si>
   <si>
     <t>99,21%</t>
@@ -335,46 +332,49 @@
     <t>98,85%</t>
   </si>
   <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
+    <t>99,37%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,27%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
     <t>99,42%</t>
   </si>
   <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>99,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -789,7 +789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AD4B84-A7D9-4F4F-9379-C3D5C245F847}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626FA6A1-37E0-402E-9C7B-37380793AC7E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1724,7 +1724,7 @@
         <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,10 +1739,10 @@
         <v>291084</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -1754,13 +1754,13 @@
         <v>387034</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>1138</v>
@@ -1769,13 +1769,13 @@
         <v>678118</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1843,13 +1843,13 @@
         <v>8856</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -1858,13 +1858,13 @@
         <v>21465</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -1876,10 +1876,10 @@
         <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1894,13 +1894,13 @@
         <v>1507746</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H23" s="7">
         <v>2341</v>
@@ -1909,13 +1909,13 @@
         <v>1661821</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M23" s="7">
         <v>3791</v>
@@ -1927,7 +1927,7 @@
         <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>112</v>

--- a/data/trans_orig/P21D_6_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{653C4C79-A273-4FAC-BCE6-28C4971FC30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32E1F6E0-0F74-4EA5-985E-AB2306586627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E6F2092-C871-4DE5-9752-470834F55575}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{422AF5A6-95C0-440C-9128-95B743F2D0C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="121">
   <si>
     <t>Población que, necesitando atención fisioterapéutica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -104,277 +104,298 @@
     <t>98,93%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
   </si>
   <si>
     <t>97,4%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -789,8 +810,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626FA6A1-37E0-402E-9C7B-37380793AC7E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04F3FB5-8F0F-482D-B0A0-9E18BA89679D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -961,7 +982,7 @@
         <v>85</v>
       </c>
       <c r="D5" s="7">
-        <v>191775</v>
+        <v>203949</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -976,7 +997,7 @@
         <v>93</v>
       </c>
       <c r="I5" s="7">
-        <v>158654</v>
+        <v>140346</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -991,7 +1012,7 @@
         <v>178</v>
       </c>
       <c r="N5" s="7">
-        <v>350430</v>
+        <v>344294</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -1012,7 +1033,7 @@
         <v>85</v>
       </c>
       <c r="D6" s="7">
-        <v>191775</v>
+        <v>203949</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -1027,7 +1048,7 @@
         <v>93</v>
       </c>
       <c r="I6" s="7">
-        <v>158654</v>
+        <v>140346</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1042,7 +1063,7 @@
         <v>178</v>
       </c>
       <c r="N6" s="7">
-        <v>350430</v>
+        <v>344294</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1065,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1733</v>
+        <v>1756</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1080,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1815</v>
+        <v>1660</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
@@ -1095,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>3548</v>
+        <v>3415</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>27</v>
@@ -1116,7 +1137,7 @@
         <v>144</v>
       </c>
       <c r="D8" s="7">
-        <v>204785</v>
+        <v>202966</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>29</v>
@@ -1131,7 +1152,7 @@
         <v>227</v>
       </c>
       <c r="I8" s="7">
-        <v>255014</v>
+        <v>289459</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>31</v>
@@ -1146,7 +1167,7 @@
         <v>371</v>
       </c>
       <c r="N8" s="7">
-        <v>459799</v>
+        <v>492426</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>33</v>
@@ -1167,7 +1188,7 @@
         <v>145</v>
       </c>
       <c r="D9" s="7">
-        <v>206518</v>
+        <v>204722</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1182,7 +1203,7 @@
         <v>228</v>
       </c>
       <c r="I9" s="7">
-        <v>256829</v>
+        <v>291119</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1197,7 +1218,7 @@
         <v>373</v>
       </c>
       <c r="N9" s="7">
-        <v>463347</v>
+        <v>495841</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1229,37 +1250,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>3701</v>
+        <v>3466</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>3701</v>
+        <v>3466</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1271,13 +1292,13 @@
         <v>222</v>
       </c>
       <c r="D11" s="7">
-        <v>223775</v>
+        <v>215486</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -1286,31 +1307,31 @@
         <v>390</v>
       </c>
       <c r="I11" s="7">
-        <v>273652</v>
+        <v>254223</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M11" s="7">
         <v>612</v>
       </c>
       <c r="N11" s="7">
-        <v>497427</v>
+        <v>469709</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1322,7 +1343,7 @@
         <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>223775</v>
+        <v>215486</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1337,7 +1358,7 @@
         <v>395</v>
       </c>
       <c r="I12" s="7">
-        <v>277353</v>
+        <v>257689</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1352,7 +1373,7 @@
         <v>617</v>
       </c>
       <c r="N12" s="7">
-        <v>501128</v>
+        <v>473175</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1366,7 +1387,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1375,46 +1396,46 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>3170</v>
+        <v>3082</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>2646</v>
+        <v>2525</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>5816</v>
+        <v>5607</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1426,46 +1447,46 @@
         <v>293</v>
       </c>
       <c r="D14" s="7">
-        <v>344270</v>
+        <v>523476</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
       </c>
       <c r="I14" s="7">
-        <v>346290</v>
+        <v>318337</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
         <v>817</v>
       </c>
       <c r="N14" s="7">
-        <v>690560</v>
+        <v>841812</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1477,7 +1498,7 @@
         <v>296</v>
       </c>
       <c r="D15" s="7">
-        <v>347440</v>
+        <v>526558</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1492,7 +1513,7 @@
         <v>528</v>
       </c>
       <c r="I15" s="7">
-        <v>348936</v>
+        <v>320862</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1507,7 +1528,7 @@
         <v>824</v>
       </c>
       <c r="N15" s="7">
-        <v>696376</v>
+        <v>847419</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1521,7 +1542,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1530,46 +1551,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2410</v>
+        <v>2313</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>6973</v>
+        <v>6443</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>9383</v>
+        <v>8756</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1581,13 +1602,13 @@
         <v>275</v>
       </c>
       <c r="D17" s="7">
-        <v>252057</v>
+        <v>235161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -1596,31 +1617,31 @@
         <v>400</v>
       </c>
       <c r="I17" s="7">
-        <v>241178</v>
+        <v>220883</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>675</v>
       </c>
       <c r="N17" s="7">
-        <v>493235</v>
+        <v>456044</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1632,7 +1653,7 @@
         <v>277</v>
       </c>
       <c r="D18" s="7">
-        <v>254467</v>
+        <v>237474</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1647,7 +1668,7 @@
         <v>411</v>
       </c>
       <c r="I18" s="7">
-        <v>248151</v>
+        <v>227326</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1662,7 +1683,7 @@
         <v>688</v>
       </c>
       <c r="N18" s="7">
-        <v>502618</v>
+        <v>464800</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1676,55 +1697,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>1542</v>
+        <v>877</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="7">
+        <v>8</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4110</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="7">
-        <v>11</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6329</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>9</v>
+      </c>
+      <c r="N19" s="7">
+        <v>4987</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M19" s="7">
-        <v>13</v>
-      </c>
-      <c r="N19" s="7">
-        <v>7871</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1733,49 +1754,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>431</v>
+        <v>240</v>
       </c>
       <c r="D20" s="7">
-        <v>291084</v>
+        <v>154697</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="7">
-        <v>707</v>
+        <v>366</v>
       </c>
       <c r="I20" s="7">
-        <v>387034</v>
+        <v>181167</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="7">
+        <v>606</v>
+      </c>
+      <c r="N20" s="7">
+        <v>335864</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1138</v>
-      </c>
-      <c r="N20" s="7">
-        <v>678118</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,10 +1805,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>433</v>
+        <v>241</v>
       </c>
       <c r="D21" s="7">
-        <v>292626</v>
+        <v>155574</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -1799,10 +1820,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>718</v>
+        <v>374</v>
       </c>
       <c r="I21" s="7">
-        <v>393363</v>
+        <v>185277</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1814,10 +1835,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1151</v>
+        <v>615</v>
       </c>
       <c r="N21" s="7">
-        <v>685989</v>
+        <v>340851</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -1831,55 +1852,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>8856</v>
+        <v>570</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1717</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>4</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2288</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="7">
-        <v>32</v>
-      </c>
-      <c r="I22" s="7">
-        <v>21465</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M22" s="7">
-        <v>40</v>
-      </c>
-      <c r="N22" s="7">
-        <v>30320</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,49 +1909,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1450</v>
+        <v>191</v>
       </c>
       <c r="D23" s="7">
-        <v>1507746</v>
+        <v>117636</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="7">
+        <v>341</v>
+      </c>
+      <c r="I23" s="7">
+        <v>168332</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>532</v>
+      </c>
+      <c r="N23" s="7">
+        <v>285968</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H23" s="7">
-        <v>2341</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1661821</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M23" s="7">
-        <v>3791</v>
-      </c>
-      <c r="N23" s="7">
-        <v>3169568</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,63 +1960,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>192</v>
+      </c>
+      <c r="D24" s="7">
+        <v>118206</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>344</v>
+      </c>
+      <c r="I24" s="7">
+        <v>170049</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>536</v>
+      </c>
+      <c r="N24" s="7">
+        <v>288256</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7">
+        <v>8597</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="7">
+        <v>32</v>
+      </c>
+      <c r="I25" s="7">
+        <v>19921</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="7">
+        <v>40</v>
+      </c>
+      <c r="N25" s="7">
+        <v>28518</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1450</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1653372</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2341</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1572746</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3791</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3226118</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1458</v>
       </c>
-      <c r="D24" s="7">
-        <v>1516602</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1661969</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>2373</v>
       </c>
-      <c r="I24" s="7">
-        <v>1683286</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1592667</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3831</v>
       </c>
-      <c r="N24" s="7">
-        <v>3199888</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>113</v>
+      <c r="N27" s="7">
+        <v>3254636</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
